--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Avinash\Selenium\Myworkspace\UpdatedDataDriverFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0893D846-574A-413C-8347-6F311A893EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F851EFAC-565E-4F0C-A4DD-6857318AE36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
